--- a/data/trans_orig/P14_n_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14_n_R-Habitat-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7111502765071872</v>
+        <v>0.7176564562104986</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9485656361794973</v>
+        <v>0.9321855752536948</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9020967320816001</v>
+        <v>0.8934225729483193</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.481017262013861</v>
+        <v>1.457155814349385</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.057778325079609</v>
+        <v>1.071497627818932</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.619672955222577</v>
+        <v>1.637818595459303</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.583838699623575</v>
+        <v>1.577329052956334</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.170682286176675</v>
+        <v>2.160455983801691</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9213185548165047</v>
+        <v>0.9158845383228092</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1.325819511662012</v>
+        <v>1.325554583044106</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1.272189121574321</v>
+        <v>1.267350718616075</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>1.857676177714486</v>
+        <v>1.864467785548062</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9146247675859094</v>
+        <v>0.9253794789129989</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.18675231664618</v>
+        <v>1.185657431119791</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.163367730598122</v>
+        <v>1.145092920970877</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.810562879531965</v>
+        <v>1.805248173001216</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.305721025103621</v>
+        <v>1.298432225195078</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.982184112976597</v>
+        <v>1.986050795587022</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.943805337196975</v>
+        <v>1.954720582796594</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.460081981687976</v>
+        <v>2.448694538418054</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.078209837276148</v>
+        <v>1.077671414019087</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1.541618772434155</v>
+        <v>1.551675572521657</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>1.498272976351711</v>
+        <v>1.497788757833234</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>2.09324219373846</v>
+        <v>2.09881971625256</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7790404685351694</v>
+        <v>0.7856869794099666</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8803757838672248</v>
+        <v>0.8772894784970373</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8191968356746401</v>
+        <v>0.813921973980078</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.20846716573808</v>
+        <v>1.208087593248055</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1.267940383216043</v>
+        <v>1.259327000123876</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>1.53402477650709</v>
+        <v>1.53768361888213</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>1.486188629807554</v>
+        <v>1.478801907179111</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>1.978564150519451</v>
+        <v>1.986536313247415</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>1.050779050498242</v>
+        <v>1.05046993386949</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1.241117723741573</v>
+        <v>1.238161081574454</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1.184770353077004</v>
+        <v>1.184838089694064</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>1.635750795424109</v>
+        <v>1.634696159804775</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9775030722158455</v>
+        <v>0.9846561839024958</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.085704728718645</v>
+        <v>1.089651948430372</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9953562256922429</v>
+        <v>1.002723640377527</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.456749095483248</v>
+        <v>1.470699764311344</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>1.513159563351711</v>
+        <v>1.494368243125741</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>1.819624202280993</v>
+        <v>1.831972574923767</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>1.789417868247452</v>
+        <v>1.790201208622801</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>2.254044874117365</v>
+        <v>2.254107613246253</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>1.202216287517634</v>
+        <v>1.209727936933836</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1.428090257277753</v>
+        <v>1.424570772077571</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1.357132678644929</v>
+        <v>1.365062923436001</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>1.82148724198465</v>
+        <v>1.822898758383776</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7636958073495619</v>
+        <v>0.7753601099489682</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7514704199951856</v>
+        <v>0.7504454963546152</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8098726076235633</v>
+        <v>0.8081104965931755</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.256860103517252</v>
+        <v>1.262051578444668</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.422748557770344</v>
+        <v>1.40900744154108</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.361698778198301</v>
+        <v>1.369396202654587</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.3176431130919</v>
+        <v>1.306561207256556</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.979672273342187</v>
+        <v>1.974295111922416</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.130503938201133</v>
+        <v>1.128071341215671</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1.09493247386103</v>
+        <v>1.103183220454268</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1.088627931418567</v>
+        <v>1.095690260990173</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>1.667414145423151</v>
+        <v>1.667924006147151</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.982930051285228</v>
+        <v>0.98796083165281</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.986847872414775</v>
+        <v>0.9728331447852824</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.058709414062592</v>
+        <v>1.045635014415736</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.547457626805917</v>
+        <v>1.54975432270291</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.7314282548922</v>
+        <v>1.71880131619948</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.685401798327931</v>
+        <v>1.672289143990416</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.65541822405074</v>
+        <v>1.65113146341015</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.311346827462455</v>
+        <v>2.323178509404575</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.314077607618167</v>
+        <v>1.318947312710819</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1.296274595886698</v>
+        <v>1.292850654084456</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1.316192388190963</v>
+        <v>1.306084871228835</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>1.889837614161622</v>
+        <v>1.888142774136045</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8003110622439026</v>
+        <v>0.8051927919174489</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9158614053845705</v>
+        <v>0.9201704728938748</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9245011269594505</v>
+        <v>0.9168985174280808</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.351631767007931</v>
+        <v>1.351551889873547</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.280715459032106</v>
+        <v>1.279044258029822</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1.635467958479983</v>
+        <v>1.628978531323954</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.537576296137421</v>
+        <v>1.556776050255091</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.159510564391881</v>
+        <v>2.166771678765896</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>1.078017385145088</v>
+        <v>1.078471487638585</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1.320373756122468</v>
+        <v>1.31998875673722</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1.281698638291526</v>
+        <v>1.27715040108671</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>1.82874490444712</v>
+        <v>1.823155970246378</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.001599128059065</v>
+        <v>0.9936074767692309</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.144073485395093</v>
+        <v>1.134181989728434</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.134333562531395</v>
+        <v>1.14006293184922</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.610114521786215</v>
+        <v>1.614959796897998</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1.49087160087331</v>
+        <v>1.49928323917706</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>1.934178861692151</v>
+        <v>1.919624870943046</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>1.863107987845466</v>
+        <v>1.854342800214512</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>2.463355234109908</v>
+        <v>2.461934453061972</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>1.226502113951239</v>
+        <v>1.232706947664912</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1.510267442552174</v>
+        <v>1.505936674833593</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>1.471262701713324</v>
+        <v>1.466369496323559</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>2.017985701553072</v>
+        <v>2.014126432719339</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8154710808589435</v>
+        <v>0.8169619372217753</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.928116559507813</v>
+        <v>0.9261539204595446</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9058568334793917</v>
+        <v>0.9125085671459522</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.38328108090314</v>
+        <v>1.379854834197529</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.310185056608782</v>
+        <v>1.315333178170253</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.617632527800579</v>
+        <v>1.61682378513007</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.557661439787535</v>
+        <v>1.559219084973668</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.144169097885172</v>
+        <v>2.144001732438137</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.084651051824812</v>
+        <v>1.086004489272541</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1.289951673475743</v>
+        <v>1.296069145519523</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1.254847967492914</v>
+        <v>1.25577968788326</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>1.792498172601398</v>
+        <v>1.788752147479864</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9181440564543097</v>
+        <v>0.9178425893586184</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.036054058975726</v>
+        <v>1.035456283231111</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.016825739945014</v>
+        <v>1.017414521114036</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.518346191724776</v>
+        <v>1.51421483628804</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.436177542208843</v>
+        <v>1.440616378031952</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.767474011628159</v>
+        <v>1.76749332868743</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.720838276182268</v>
+        <v>1.71883320145004</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.290201701946234</v>
+        <v>2.293390463028812</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.166659859022462</v>
+        <v>1.167632043827288</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1.38863673486727</v>
+        <v>1.390189785740953</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1.355777177301061</v>
+        <v>1.355468256521629</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>1.895336809119187</v>
+        <v>1.890924554610246</v>
       </c>
     </row>
     <row r="19">
